--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Levin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="159">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -483,12 +478,30 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>tutorials (2h)</t>
+  </si>
+  <si>
+    <t>Guard Head and Torso(7,3h)</t>
+  </si>
+  <si>
+    <t>Arms and Legs(3h), Artist meeting (handsoft) und topo gespräch mit michi(1,5h)</t>
+  </si>
+  <si>
+    <t>Feet(2h), 1/2Hand(1,25), (Ear bevor max died…1h), topo fix begonnen (1h)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1074,7 +1087,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1084,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,60 +1591,94 @@
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="E27" s="9">
         <f t="shared" ref="E27:E32" si="0">(B27-C27)*-24-D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+        <v>7.5</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.5</v>
+      </c>
       <c r="E29" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4999999999999982</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="13">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1673,7 +1720,7 @@
       </c>
       <c r="E33" s="21">
         <f>SUM(E26:E32)</f>
-        <v>5.0000000000000009</v>
+        <v>24.25</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1688,7 +1735,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1849,7 +1896,7 @@
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2010,7 +2057,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2171,7 +2218,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2332,7 +2379,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2493,7 +2540,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2654,7 +2701,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2815,7 +2862,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2976,7 +3023,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3137,7 +3184,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3298,7 +3345,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3459,7 +3506,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3620,7 +3667,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3780,7 +3827,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3941,7 +3988,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4102,7 +4149,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>26.08</v>
+        <v>45.33</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -1087,7 +1087,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,14 +1666,14 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="C30" s="13">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>4.2500000000000018</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E33" s="21">
         <f>SUM(E26:E32)</f>
-        <v>24.25</v>
+        <v>23.25</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>45.33</v>
+        <v>44.33</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="162">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -496,6 +496,15 @@
   </si>
   <si>
     <t>Feet(2h), 1/2Hand(1,25), (Ear bevor max died…1h), topo fix begonnen (1h)</t>
+  </si>
+  <si>
+    <t>Topo fix</t>
+  </si>
+  <si>
+    <t>vertex schupsen für propotionen, hands(1h), ears(30min)</t>
+  </si>
+  <si>
+    <t>Unterichts Woche</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1097,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1787,9 @@
         <f>(B36-C36)*-24-D36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
@@ -1793,7 +1804,9 @@
         <f t="shared" ref="E37:E42" si="1">(B37-C37)*-24-D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
@@ -1808,7 +1821,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
@@ -1823,7 +1838,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
@@ -1838,7 +1855,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
@@ -1853,7 +1872,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
@@ -1932,30 +1953,46 @@
       <c r="A46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="13">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D46" s="23">
+        <v>1.3</v>
+      </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>0</v>
+        <v>5.0333333333333341</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1</v>
+      </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="2">(B47-C47)*-24-D47</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2042,7 +2079,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>0</v>
+        <v>10.533333333333335</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2057,7 +2094,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2100,7 +2137,9 @@
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
@@ -2115,7 +2154,9 @@
         <f t="shared" ref="E57:E62" si="3">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
@@ -2130,7 +2171,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
@@ -2145,7 +2188,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F59" s="12"/>
+      <c r="F59" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
@@ -2160,7 +2205,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
     </row>
@@ -2175,7 +2222,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
     </row>
@@ -2218,7 +2267,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2379,7 +2428,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2540,7 +2589,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2701,7 +2750,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2862,7 +2911,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3023,7 +3072,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3184,7 +3233,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3345,7 +3394,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3506,7 +3555,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3667,7 +3716,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3827,7 +3876,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3988,7 +4037,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4149,7 +4198,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>44.33</v>
+        <v>54.86333333333333</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="164">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>Unterichts Woche</t>
+  </si>
+  <si>
+    <t>Guard Vertex Shupsen nach Iteration 1(6h), 30min tutorials kucken für UV</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1102,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,19 +2001,27 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.71875</v>
+      </c>
+      <c r="D48" s="14">
+        <v>1</v>
+      </c>
       <c r="E48" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2021,7 +2035,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
     </row>
@@ -2079,7 +2095,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>10.533333333333335</v>
+        <v>16.783333333333335</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2094,7 +2110,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2267,7 +2283,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2428,7 +2444,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2589,7 +2605,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2750,7 +2766,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2911,7 +2927,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3072,7 +3088,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3233,7 +3249,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3394,7 +3410,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3555,7 +3571,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3716,7 +3732,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3876,7 +3892,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4037,7 +4053,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4198,7 +4214,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>54.86333333333333</v>
+        <v>61.11333333333333</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="166">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Feiertag   Pfingstmontag</t>
+  </si>
+  <si>
+    <t>Topo fix Sulter, Topofix Bein Begonnen (ganzer tag)</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1112,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2332,9 @@
         <f>(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="12"/>
+      <c r="F66" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
     </row>
@@ -2341,7 +2349,9 @@
         <f t="shared" ref="E67:E72" si="4">(B67-C67)*-24-D67</f>
         <v>0</v>
       </c>
-      <c r="F67" s="12"/>
+      <c r="F67" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
     </row>
@@ -2356,23 +2366,33 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
+      <c r="B69" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.3</v>
+      </c>
       <c r="E69" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.2000000000000011</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2429,7 +2449,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <v>6.2000000000000011</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2444,7 +2464,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2605,7 +2625,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2766,7 +2786,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2927,7 +2947,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3088,7 +3108,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3249,7 +3269,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3410,7 +3430,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3571,7 +3591,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3732,7 +3752,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3892,7 +3912,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4053,7 +4073,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4214,7 +4234,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>61.11333333333333</v>
+        <v>67.313333333333333</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -517,6 +517,12 @@
   </si>
   <si>
     <t>Topo fix Sulter, Topofix Bein Begonnen (ganzer tag)</t>
+  </si>
+  <si>
+    <t>Suff fürs modell schulter</t>
+  </si>
+  <si>
+    <t>Sutff für guard und hände füße</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1118,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2427,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F71" s="12"/>
+      <c r="F71" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
     </row>
@@ -2507,7 +2515,9 @@
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="12"/>
+      <c r="F76" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
     </row>
@@ -2522,7 +2532,9 @@
         <f t="shared" ref="E77:E82" si="5">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="12"/>
+      <c r="F77" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
     </row>
@@ -2530,30 +2542,46 @@
       <c r="A78" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="B78" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0.3</v>
+      </c>
       <c r="E78" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="G78" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="B79" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C79" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
       <c r="E79" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
+      <c r="G79" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2610,7 +2638,7 @@
       </c>
       <c r="E83" s="27">
         <f>SUM(E76:E82)</f>
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -2625,7 +2653,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2786,7 +2814,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2947,7 +2975,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3108,7 +3136,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3269,7 +3297,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3430,7 +3458,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3591,7 +3619,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3752,7 +3780,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3912,7 +3940,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4073,7 +4101,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4234,7 +4262,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>67.313333333333333</v>
+        <v>75.513333333333335</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="172">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>Sutff für guard und hände füße</t>
+  </si>
+  <si>
+    <t>Neues guard modell 6h straight; modeln hat mich abends gepackt nach 2 tägiger kreativ pause.</t>
+  </si>
+  <si>
+    <t>Frei</t>
+  </si>
+  <si>
+    <t>1,5h</t>
+  </si>
+  <si>
+    <t>Guard 2.0 propotios, XL Meeting (ca 10-11:30)</t>
   </si>
 </sst>
 </file>
@@ -752,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -839,6 +851,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1124,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2610,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F80" s="12"/>
+      <c r="F80" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
     </row>
@@ -2610,23 +2627,30 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F81" s="12"/>
+      <c r="F81" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+      <c r="B82" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C82" s="16">
+        <v>0.125</v>
+      </c>
       <c r="D82" s="25"/>
       <c r="E82" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="30" t="s">
+        <v>168</v>
+      </c>
       <c r="H82" s="20"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2638,7 +2662,7 @@
       </c>
       <c r="E83" s="27">
         <f>SUM(E76:E82)</f>
-        <v>8.1999999999999993</v>
+        <v>14.2</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -2653,7 +2677,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>75.513333333333335</v>
+        <v>81.513333333333335</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2689,15 +2713,22 @@
       <c r="A86" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="23"/>
+      <c r="B86" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>170</v>
+      </c>
       <c r="E86" s="9">
-        <f>(B86-C86)*-24-D86</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2799,7 +2830,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2814,7 +2845,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2975,7 +3006,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3136,7 +3167,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3297,7 +3328,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3458,7 +3489,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3619,7 +3650,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3780,7 +3811,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3940,7 +3971,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4101,7 +4132,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4262,7 +4293,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>75.513333333333335</v>
+        <v>85.513333333333335</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="173">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>Guard 2.0 propotios, XL Meeting (ca 10-11:30)</t>
+  </si>
+  <si>
+    <t>Concepting, Zeug mit team besprechen</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,7 +2547,7 @@
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
       <c r="E77" s="9">
-        <f t="shared" ref="E77:E82" si="5">(B77-C77)*-24-D77</f>
+        <f t="shared" ref="E77:E81" si="5">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
       <c r="F77" s="12" t="s">
@@ -2735,15 +2738,23 @@
       <c r="A87" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="B87" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
       <c r="E87" s="9">
         <f t="shared" ref="E87:E92" si="6">(B87-C87)*-24-D87</f>
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2830,7 +2841,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>4</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2845,7 +2856,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3006,7 +3017,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3167,7 +3178,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3328,7 +3339,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3489,7 +3500,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3650,7 +3661,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3811,7 +3822,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3971,7 +3982,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4132,7 +4143,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4293,7 +4304,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>85.513333333333335</v>
+        <v>89.513333333333335</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="176">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -538,6 +538,15 @@
   </si>
   <si>
     <t>Concepting, Zeug mit team besprechen</t>
+  </si>
+  <si>
+    <t>untericht</t>
+  </si>
+  <si>
+    <t>krank</t>
+  </si>
+  <si>
+    <t>Candle Small, Candle Medium (+UV), Einzelgespräch 10:30-12:00, Besprochen wegen voodosymbolen und ui mit art lead 1h</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1141,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1142,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,14 +2770,22 @@
       <c r="A88" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="B88" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1</v>
+      </c>
       <c r="E88" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="12"/>
+        <v>5.5</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
     </row>
@@ -2776,14 +2793,22 @@
       <c r="A89" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="B89" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C89" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D89" s="14">
+        <v>3</v>
+      </c>
       <c r="E89" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
     </row>
@@ -2798,7 +2823,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F90" s="12"/>
+      <c r="F90" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
     </row>
@@ -2841,7 +2868,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>7.9999999999999991</v>
+        <v>18.5</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2856,7 +2883,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>89.513333333333335</v>
+        <v>100.01333333333334</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2899,7 +2926,9 @@
         <f>(B96-C96)*-24-D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="12"/>
+      <c r="F96" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
     </row>
@@ -2914,7 +2943,9 @@
         <f t="shared" ref="E97:E102" si="7">(B97-C97)*-24-D97</f>
         <v>0</v>
       </c>
-      <c r="F97" s="12"/>
+      <c r="F97" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
     </row>
@@ -2929,7 +2960,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F98" s="12"/>
+      <c r="F98" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
     </row>
@@ -2944,7 +2977,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F99" s="12"/>
+      <c r="F99" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
     </row>
@@ -2959,7 +2994,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F100" s="12"/>
+      <c r="F100" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
     </row>
@@ -2974,7 +3011,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F101" s="12"/>
+      <c r="F101" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
     </row>
@@ -3017,7 +3056,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>89.513333333333335</v>
+        <v>100.01333333333334</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3178,7 +3217,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>89.513333333333335</v>
+        <v>100.01333333333334</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3210,19 +3249,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="23"/>
+      <c r="B116" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C116" s="13">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D116" s="23">
+        <v>1</v>
+      </c>
       <c r="E116" s="9">
         <f>(B116-C116)*-24-D116</f>
-        <v>0</v>
+        <v>5.2499999999999991</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
+      <c r="G116" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3324,7 +3371,7 @@
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
-        <v>0</v>
+        <v>5.2499999999999991</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3339,7 +3386,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>89.513333333333335</v>
+        <v>105.26333333333334</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3500,7 +3547,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>89.513333333333335</v>
+        <v>105.26333333333334</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3661,7 +3708,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>89.513333333333335</v>
+        <v>105.26333333333334</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3822,7 +3869,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>89.513333333333335</v>
+        <v>105.26333333333334</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3982,7 +4029,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>89.513333333333335</v>
+        <v>105.26333333333334</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4143,7 +4190,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>89.513333333333335</v>
+        <v>105.26333333333334</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4304,7 +4351,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>89.513333333333335</v>
+        <v>105.26333333333334</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="179">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>Candle Small, Candle Medium (+UV), Einzelgespräch 10:30-12:00, Besprochen wegen voodosymbolen und ui mit art lead 1h</t>
+  </si>
+  <si>
+    <t>Candle Large, Preservin Jar, Assetlist review…</t>
+  </si>
+  <si>
+    <t>Finalizing and unraping(again) candles and Jar, Meeting 15:00-16:00, Little research for 50's hospitals</t>
+  </si>
+  <si>
+    <t>Verkehrs amt</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1151,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,30 +3285,48 @@
       <c r="A117" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
+      <c r="B117" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C117" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D117" s="14">
+        <v>1</v>
+      </c>
       <c r="E117" s="9">
         <f t="shared" ref="E117:E122" si="9">(B117-C117)*-24-D117</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+      <c r="G117" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
+      <c r="B118" s="13">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="C118" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D118" s="14">
+        <v>0.45</v>
+      </c>
       <c r="E118" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+        <v>6.1166666666666645</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3371,7 +3398,7 @@
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
-        <v>5.2499999999999991</v>
+        <v>16.366666666666664</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3386,7 +3413,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>105.26333333333334</v>
+        <v>116.38</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3547,7 +3574,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>105.26333333333334</v>
+        <v>116.38</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3708,7 +3735,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>105.26333333333334</v>
+        <v>116.38</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3869,7 +3896,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>105.26333333333334</v>
+        <v>116.38</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4029,7 +4056,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>105.26333333333334</v>
+        <v>116.38</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4190,7 +4217,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>105.26333333333334</v>
+        <v>116.38</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4351,7 +4378,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>105.26333333333334</v>
+        <v>116.38</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="180">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Verkehrs amt</t>
+  </si>
+  <si>
+    <t>9:00-11:00 Ga Forum, Mesch(ohne uv) Operating Table4h , Mok up Icons 1h</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="B96" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,19 +3332,27 @@
       </c>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="14"/>
+      <c r="B119" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C119" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D119" s="14">
+        <v>1</v>
+      </c>
       <c r="E119" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
+      <c r="G119" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,7 +3409,7 @@
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
-        <v>16.366666666666664</v>
+        <v>21.366666666666667</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3413,7 +3424,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>116.38</v>
+        <v>121.38</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3574,7 +3585,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>116.38</v>
+        <v>121.38</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3735,7 +3746,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>116.38</v>
+        <v>121.38</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3896,7 +3907,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>116.38</v>
+        <v>121.38</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4056,7 +4067,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>116.38</v>
+        <v>121.38</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4217,7 +4228,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>116.38</v>
+        <v>121.38</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4378,7 +4389,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>116.38</v>
+        <v>121.38</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Levin/Levin_Zeiterfassung.xlsx
+++ b/_WIP/Levin/Levin_Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="185">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -559,6 +559,21 @@
   </si>
   <si>
     <t>9:00-11:00 Ga Forum, Mesch(ohne uv) Operating Table4h , Mok up Icons 1h</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>ui + Uvs</t>
+  </si>
+  <si>
+    <t>ui Main meue</t>
+  </si>
+  <si>
+    <t>ui Concepts for UI and feedback</t>
+  </si>
+  <si>
+    <t>Review Doll 13 1.0</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B96" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,15 +3475,23 @@
       <c r="A126" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="23"/>
+      <c r="B126" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C126" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="D126" s="23">
+        <v>2</v>
+      </c>
       <c r="E126" s="9">
         <f>(B126-C126)*-24-D126</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
+      <c r="G126" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3482,7 +3505,9 @@
         <f t="shared" ref="E127:E132" si="10">(B127-C127)*-24-D127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="12"/>
+      <c r="F127" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
     </row>
@@ -3490,44 +3515,66 @@
       <c r="A128" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
+      <c r="B128" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C128" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D128" s="14">
+        <v>1</v>
+      </c>
       <c r="E128" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
+      <c r="G128" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
+      <c r="B129" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D129" s="14">
+        <v>2</v>
+      </c>
       <c r="E129" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
+      <c r="B130" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C130" s="13">
+        <v>0.6875</v>
+      </c>
       <c r="D130" s="14"/>
       <c r="E130" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F130" s="12"/>
+        <v>6.5</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
     </row>
@@ -3542,7 +3589,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F131" s="12"/>
+      <c r="F131" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
     </row>
@@ -3570,7 +3619,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3585,7 +3634,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>121.38</v>
+        <v>146.88</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3621,15 +3670,23 @@
       <c r="A136" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="23"/>
+      <c r="B136" s="13">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C136" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="D136" s="23">
+        <v>1</v>
+      </c>
       <c r="E136" s="9">
         <f>(B136-C136)*-24-D136</f>
-        <v>0</v>
+        <v>3.8333333333333339</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="G136" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3731,7 +3788,7 @@
       </c>
       <c r="E143" s="27">
         <f>SUM(E136:E142)</f>
-        <v>0</v>
+        <v>3.8333333333333339</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -3746,7 +3803,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>121.38</v>
+        <v>150.71333333333334</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3782,12 +3839,18 @@
       <c r="A146" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="23"/>
+      <c r="B146" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C146" s="13">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D146" s="23">
+        <v>1</v>
+      </c>
       <c r="E146" s="9">
         <f>(B146-C146)*-24-D146</f>
-        <v>0</v>
+        <v>6.5000000000000018</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
@@ -3797,12 +3860,18 @@
       <c r="A147" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
+      <c r="B147" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C147" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D147" s="14">
+        <v>1</v>
+      </c>
       <c r="E147" s="9">
         <f t="shared" ref="E147:E152" si="12">(B147-C147)*-24-D147</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
@@ -3892,7 +3961,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>0</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -3907,7 +3976,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>121.38</v>
+        <v>162.71333333333334</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4067,7 +4136,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>121.38</v>
+        <v>162.71333333333334</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4228,7 +4297,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>121.38</v>
+        <v>162.71333333333334</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4389,7 +4458,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>121.38</v>
+        <v>162.71333333333334</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
